--- a/links.xlsx
+++ b/links.xlsx
@@ -1,78 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/CTI-WebScraping/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29C10584-B831-9A49-9D63-72BE102B9808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1000" windowWidth="25040" windowHeight="14020" xr2:uid="{6FBE3765-B5B2-5747-9B54-9733C751F4E0}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>http://www.microsoft.com</t>
-  </si>
-  <si>
-    <t>http://www.reddit.com</t>
-  </si>
-  <si>
-    <t>http://www.apple.com</t>
-  </si>
-  <si>
-    <t>http://www.wikipedia.org</t>
-  </si>
-  <si>
-    <t>http://www.linkedin.com</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="-webkit-standard"/>
+      <color rgb="FF000000"/>
       <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="-webkit-standard"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="12"/>
+      <u val="single"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -87,26 +55,88 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -406,44 +436,188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07902883-522B-CB42-99B5-F4035B1383D8}">
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
+    <col width="32" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="18">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="18">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="18">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="18">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+    <row r="1" ht="18" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>reddit.com</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0/40</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>apple.com</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0/40</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>wikipedia.org</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0/40</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>linkedin.com</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0/40</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>reddit.com</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0/40</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>apple.com</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0/40</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>wikipedia.org</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0/40</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>linkedin.com</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0/40</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>reddit.com</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0/40</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>apple.com</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0/40</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>wikipedia.org</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0/40</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>linkedin.com</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0/40</t>
+        </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" display="www.reddit.com" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A3" display="www.apple.com" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A4" display="www.wikipedia.org" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A5" display="www.linkedin.com" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A6" display="www.reddit.com" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A7" display="www.apple.com" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A8" display="www.wikipedia.org" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A9" display="www.linkedin.com" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A10" display="www.reddit.com" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A11" display="www.apple.com" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A12" display="www.wikipedia.org" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A13" display="www.linkedin.com" r:id="rId12"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/links.xlsx
+++ b/links.xlsx
@@ -9,7 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -444,7 +444,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
@@ -462,24 +462,24 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>reddit.com</t>
+          <t>agencedirecte.ma/</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0/40</t>
+          <t>Report Not Found</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>apple.com</t>
+          <t>abcclim.net/</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0/40</t>
+          <t>Report Not Found</t>
         </is>
       </c>
     </row>

--- a/links.xlsx
+++ b/links.xlsx
@@ -1,46 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/CTI-WebScraping/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74C7D74-EF62-354A-8550-E79217D5B493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>www.google.com</t>
+  </si>
+  <si>
+    <t>Regular Expression</t>
+  </si>
+  <si>
+    <t>.cnss.ma</t>
+  </si>
+  <si>
+    <t>www.exploit-db.com</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="-webkit-standard"/>
-      <color rgb="FF000000"/>
-      <sz val="14"/>
-    </font>
-    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="12"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -57,86 +77,26 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -436,187 +396,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
-  <cols>
-    <col width="32" customWidth="1" min="1" max="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>URL</t>
-        </is>
+    <row r="1" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>agencedirecte.ma/</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Report Not Found</t>
-        </is>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>abcclim.net/</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Report Not Found</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>wikipedia.org</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0/40</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>linkedin.com</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0/40</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>reddit.com</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0/40</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>apple.com</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0/40</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>wikipedia.org</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0/40</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>linkedin.com</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0/40</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>reddit.com</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0/40</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>apple.com</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0/40</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>wikipedia.org</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0/40</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>linkedin.com</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0/40</t>
-        </is>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" display="www.reddit.com" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A3" display="www.apple.com" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A4" display="www.wikipedia.org" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A5" display="www.linkedin.com" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A6" display="www.reddit.com" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A7" display="www.apple.com" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A8" display="www.wikipedia.org" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A9" display="www.linkedin.com" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A10" display="www.reddit.com" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A11" display="www.apple.com" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A12" display="www.wikipedia.org" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A13" display="www.linkedin.com" r:id="rId12"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{06EB61FD-3BF6-E74E-AE28-D2502E78E56A}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{C58041B5-2799-6544-BCED-16A037A9117B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
